--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,6 +25,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>effectType</t>
+  </si>
+  <si>
+    <t>counterType</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -34,25 +40,52 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|SkillEffectType</t>
+  </si>
+  <si>
+    <t>enum|BuffCounterType</t>
+  </si>
+  <si>
     <t>Guard</t>
   </si>
   <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>TurnRemove</t>
+  </si>
+  <si>
     <t>Reduce damage.</t>
   </si>
   <si>
     <t>Overtime Work</t>
   </si>
   <si>
+    <t>TurnDecrease</t>
+  </si>
+  <si>
     <t>Get extra AP when turn starts.</t>
   </si>
   <si>
-    <t>Infinite</t>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
   <si>
     <t>Next X skills can enlarge the radius.</t>
   </si>
   <si>
+    <t>Super Worker</t>
+  </si>
+  <si>
+    <t>Increase ability in X turns.</t>
+  </si>
+  <si>
     <t>Burning</t>
+  </si>
+  <si>
+    <t>Harm</t>
   </si>
   <si>
     <t>Receive X damage when turn starts.</t>
@@ -671,8 +704,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,16 +1022,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="37.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="37.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1003,70 +1041,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>2001</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="17020" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17020" windowHeight="8940"/>
+    <workbookView windowWidth="13870" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13870" windowHeight="9090"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>effectType</t>
+  </si>
+  <si>
+    <t>maxLevel</t>
   </si>
   <si>
     <t>counterType</t>
@@ -1022,18 +1025,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="37.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="37.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1041,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1054,110 +1058,131 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>//Remark</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>firstSpecialEffect</t>
+  </si>
+  <si>
+    <t>firstSpecialDelta</t>
   </si>
   <si>
     <t>int</t>
@@ -1025,19 +1031,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
     <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="37.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="22.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="19.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1045,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1064,25 +1072,37 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1090,39 +1110,45 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1003</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1130,39 +1156,45 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1004</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1170,19 +1202,19 @@
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>//Remark</t>
   </si>
   <si>
+    <t>//1 means special BUFF</t>
+  </si>
+  <si>
+    <t>//3 means basic BUFF</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -34,6 +40,9 @@
     <t>counterType</t>
   </si>
   <si>
+    <t>countDownType</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -55,7 +64,10 @@
     <t>enum|BuffCounterType</t>
   </si>
   <si>
-    <t>Guard</t>
+    <t>enum|BuffCountDownType</t>
+  </si>
+  <si>
+    <t>FinalGuard</t>
   </si>
   <si>
     <t>Help</t>
@@ -64,7 +76,10 @@
     <t>TurnRemove</t>
   </si>
   <si>
-    <t>Reduce damage.</t>
+    <t>BeforeReset</t>
+  </si>
+  <si>
+    <t>Won't die before next turn.</t>
   </si>
   <si>
     <t>Overtime Work</t>
@@ -89,6 +104,18 @@
   </si>
   <si>
     <t>Increase ability in X turns.</t>
+  </si>
+  <si>
+    <t>Chanting</t>
+  </si>
+  <si>
+    <t>Increase range and AP in X turns.</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Recover X HP when turn starts</t>
   </si>
   <si>
     <t>Burning</t>
@@ -1031,190 +1058,270 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
     <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="37.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="22.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="19.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="22.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="37.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="22.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="19.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="I3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>1003</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>1004</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>1004</v>
-      </c>
-      <c r="H7">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>1003</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>4001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>//Remark</t>
   </si>
@@ -43,6 +43,12 @@
     <t>countDownType</t>
   </si>
   <si>
+    <t>canBeRemoved</t>
+  </si>
+  <si>
+    <t>canBeDouble</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>enum|BuffCountDownType</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>FinalGuard</t>
@@ -1058,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1071,9 +1080,10 @@
     <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
     <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="22.7272727272727" customWidth="1"/>
-    <col min="7" max="7" width="37.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="22.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="19.4545454545455" customWidth="1"/>
+    <col min="7" max="8" width="13.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="37.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1087,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1106,222 +1116,276 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>1003</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
         <v>1004</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
         <v>1003</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>4001</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>//Remark</t>
   </si>
@@ -121,19 +121,37 @@
     <t>Increase range and AP in X turns.</t>
   </si>
   <si>
+    <t>Time Shift</t>
+  </si>
+  <si>
+    <t>Dodge Next X attack from enemy.</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
     <t>Regen</t>
   </si>
   <si>
     <t>Recover X HP when turn starts</t>
   </si>
   <si>
+    <t>Reduce Damage</t>
+  </si>
+  <si>
     <t>Burning</t>
   </si>
   <si>
-    <t>Harm</t>
-  </si>
-  <si>
     <t>Receive X damage when turn starts.</t>
+  </si>
+  <si>
+    <t>Fragile</t>
+  </si>
+  <si>
+    <t>TurnHalf</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1332,7 +1350,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>3001</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1341,10 +1359,10 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1359,9 +1377,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>4001</v>
+        <v>2001</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1370,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1384,8 +1402,115 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>3001</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>3002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>4001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>//Remark</t>
   </si>
@@ -121,10 +121,13 @@
     <t>Increase range and AP in X turns.</t>
   </si>
   <si>
-    <t>Time Shift</t>
+    <t>Chronal Shift</t>
   </si>
   <si>
     <t>Dodge Next X attack from enemy.</t>
+  </si>
+  <si>
+    <t>Absorb</t>
   </si>
   <si>
     <t>Curse</t>
@@ -1085,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1359,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1379,19 +1382,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>2001</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1403,15 +1406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1428,16 +1431,13 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>3002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1457,22 +1457,25 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1483,25 +1486,22 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>4001</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>4002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1510,6 +1510,35 @@
         <v>1</v>
       </c>
       <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>4002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>//Remark</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Absorb</t>
+  </si>
+  <si>
+    <t>Hated</t>
+  </si>
+  <si>
+    <t>Attract enemies' attack</t>
   </si>
   <si>
     <t>Curse</t>
@@ -1088,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1406,15 +1412,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>2001</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1431,16 +1437,19 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1457,13 +1466,10 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1475,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1486,22 +1492,25 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1512,25 +1521,22 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1539,6 +1545,35 @@
         <v>1</v>
       </c>
       <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15670" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15670" windowHeight="7770"/>
+    <workbookView windowWidth="15860" windowHeight="9410"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>//Remark</t>
   </si>
@@ -58,6 +58,9 @@
     <t>firstSpecialDelta</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Won't die before next turn.</t>
   </si>
   <si>
+    <t>buff_Up</t>
+  </si>
+  <si>
     <t>Overtime Work</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>Harm</t>
   </si>
   <si>
+    <t>buff_Down</t>
+  </si>
+  <si>
     <t>Regen</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>Receive X damage when turn starts.</t>
+  </si>
+  <si>
+    <t>buff_Burning</t>
   </si>
   <si>
     <t>Fragile</t>
@@ -1094,10 +1106,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1111,6 +1125,7 @@
     <col min="9" max="9" width="37.2727272727273" customWidth="1"/>
     <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
     <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="13.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1124,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1158,60 +1173,66 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1220,27 +1241,30 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1249,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>1003</v>
@@ -1257,25 +1281,28 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1284,27 +1311,30 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1313,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>1004</v>
@@ -1321,25 +1351,28 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1348,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>1003</v>
@@ -1356,25 +1389,28 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1383,27 +1419,30 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1411,54 +1450,60 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1466,54 +1511,60 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1521,25 +1572,28 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1548,33 +1602,39 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15860" windowHeight="9410"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>//Remark</t>
   </si>
@@ -88,19 +88,22 @@
     <t>TurnRemove</t>
   </si>
   <si>
+    <t>AfterReset</t>
+  </si>
+  <si>
+    <t>Won't die before next turn.</t>
+  </si>
+  <si>
+    <t>buff_Up</t>
+  </si>
+  <si>
+    <t>Overtime Work</t>
+  </si>
+  <si>
+    <t>TurnDecrease</t>
+  </si>
+  <si>
     <t>BeforeReset</t>
-  </si>
-  <si>
-    <t>Won't die before next turn.</t>
-  </si>
-  <si>
-    <t>buff_Up</t>
-  </si>
-  <si>
-    <t>Overtime Work</t>
-  </si>
-  <si>
-    <t>TurnDecrease</t>
   </si>
   <si>
     <t>Get extra AP when turn starts.</t>
@@ -1109,9 +1112,9 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1264,7 +1267,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>1003</v>
@@ -1290,7 +1293,7 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1299,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1311,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -1322,7 +1325,7 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1334,7 +1337,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>1004</v>
@@ -1360,7 +1363,7 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1372,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1381,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>1003</v>
@@ -1398,7 +1401,7 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1410,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1419,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -1430,7 +1433,7 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1439,10 +1442,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1459,7 +1462,7 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1471,7 +1474,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1480,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
         <v>26</v>
@@ -1491,10 +1494,10 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1503,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1520,7 +1523,7 @@
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1532,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
@@ -1552,7 +1555,7 @@
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1564,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1581,10 +1584,10 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1602,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1613,19 +1616,19 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1634,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>//Remark</t>
   </si>
@@ -91,7 +104,7 @@
     <t>AfterReset</t>
   </si>
   <si>
-    <t>Won't die before next turn.</t>
+    <t>Won't die before next turn. Remove buff when turn start.</t>
   </si>
   <si>
     <t>buff_Up</t>
@@ -106,7 +119,7 @@
     <t>BeforeReset</t>
   </si>
   <si>
-    <t>Get extra AP when turn starts.</t>
+    <t>&lt;sprite="Common" name="AP"&gt; AP + 1. Decrease buff by turn.</t>
   </si>
   <si>
     <t>Infinity</t>
@@ -121,28 +134,31 @@
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Increase ability in X turns.</t>
+    <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1 in X turns. Decrease buff by turn.</t>
   </si>
   <si>
     <t>Chanting</t>
   </si>
   <si>
-    <t>Increase range and AP in X turns.</t>
+    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and &lt;sprite="Common" name="AP"&gt; AP + 1. &lt;sprite="Common" name="MOV"&gt; MOV = 0 when turn starts. Decrease buff by turn.</t>
   </si>
   <si>
     <t>Chronal Shift</t>
   </si>
   <si>
-    <t>Dodge Next X attack from enemy.</t>
+    <t>Dodge Next X attack from enemy. Remove buff when turn start.</t>
   </si>
   <si>
     <t>Absorb</t>
   </si>
   <si>
+    <t>Next X skill can restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
+  </si>
+  <si>
     <t>Hated</t>
   </si>
   <si>
-    <t>Attract enemies' attack</t>
+    <t>Attract enemies' attack. Buff decrease by turn.</t>
   </si>
   <si>
     <t>Curse</t>
@@ -151,22 +167,28 @@
     <t>Harm</t>
   </si>
   <si>
+    <t>Get 1 level Fragile when losting &lt;sprite="Common" name="HP"&gt; HP. Buff decrease by turn.</t>
+  </si>
+  <si>
     <t>buff_Down</t>
   </si>
   <si>
     <t>Regen</t>
   </si>
   <si>
-    <t>Recover X HP when turn starts</t>
-  </si>
-  <si>
-    <t>Reduce Damage</t>
+    <t>Restore X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Buff decrease by turn.</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Reduce X damage when losting &lt;sprite="Common" name="HP"&gt; HP. Remove buff when turn start.</t>
   </si>
   <si>
     <t>Burning</t>
   </si>
   <si>
-    <t>Receive X damage when turn starts.</t>
+    <t>Lost X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Decrease buff by turn.</t>
   </si>
   <si>
     <t>buff_Burning</t>
@@ -176,12 +198,15 @@
   </si>
   <si>
     <t>TurnHalf</t>
+  </si>
+  <si>
+    <t>Lost extra X &lt;sprite="Common" name="HP"&gt; HP when losting &lt;sprite="Common" name="HP"&gt; HP. Buff reduces by half every turn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -791,12 +816,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,7 +1142,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1125,7 +1153,7 @@
     <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="22.7272727272727" customWidth="1"/>
     <col min="7" max="8" width="13.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="37.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="52.0909090909091" customWidth="1"/>
     <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
     <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
     <col min="12" max="12" width="13.6363636363636" customWidth="1"/>
@@ -1218,7 +1246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="28" spans="1:12">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1243,14 +1271,14 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" ht="28" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1275,7 +1303,7 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J5">
@@ -1320,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" ht="56" spans="1:12">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1345,7 +1373,7 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7">
@@ -1358,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" ht="56" spans="1:12">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1383,7 +1411,7 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -1396,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="28" spans="1:12">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1421,7 +1449,7 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L9" t="s">
@@ -1453,6 +1481,9 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" t="s">
         <v>26</v>
       </c>
@@ -1462,7 +1493,7 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1482,22 +1513,22 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="28" spans="1:12">
       <c r="A12">
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1514,16 +1545,19 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" ht="28" spans="1:12">
       <c r="A13">
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1543,19 +1577,19 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>47</v>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" ht="28" spans="1:12">
       <c r="A14">
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1575,19 +1609,22 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="28" spans="1:12">
       <c r="A15">
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1604,28 +1641,28 @@
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>50</v>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="42" spans="1:12">
       <c r="A16">
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -1636,8 +1673,11 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -128,7 +128,7 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>Next X skills can enlarge the radius.</t>
+    <t xml:space="preserve">&lt;sprite="Common" name="Radius"&gt; Radius + 1 for next X </t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -161,7 +161,7 @@
     <t>Attract enemies' attack. Buff decrease by turn.</t>
   </si>
   <si>
-    <t>Curse</t>
+    <t>Fear</t>
   </si>
   <si>
     <t>Harm</t>
@@ -1142,7 +1142,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20380" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>//Remark</t>
   </si>
@@ -92,7 +92,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>FinalGuard</t>
+    <t>Deadline Fighter</t>
   </si>
   <si>
     <t>Help</t>
@@ -107,7 +107,7 @@
     <t>Won't die before next turn. Remove buff when turn start.</t>
   </si>
   <si>
-    <t>buff_Up</t>
+    <t>imgBuff_Deadline</t>
   </si>
   <si>
     <t>Overtime Work</t>
@@ -119,7 +119,10 @@
     <t>BeforeReset</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; AP + 1. Decrease buff by turn.</t>
+    <t>&lt;sprite="Common" name="AP"&gt; MaxAP + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_Overtime</t>
   </si>
   <si>
     <t>Infinity</t>
@@ -128,49 +131,67 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;sprite="Common" name="Radius"&gt; Radius + 1 for next X </t>
+    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for next X &lt;sprite="SkillType" name="SSkill"&gt; Support Skill or &lt;sprite="SkillType" name="HSkill"&gt; Hurt Skill.</t>
+  </si>
+  <si>
+    <t>imgBuff_Infinity</t>
   </si>
   <si>
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1 in X turns. Decrease buff by turn.</t>
+    <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES and &lt;sprite="Common" name="MOV"&gt; MaxMOV by 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_Super</t>
   </si>
   <si>
     <t>Chanting</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and &lt;sprite="Common" name="AP"&gt; AP + 1. &lt;sprite="Common" name="MOV"&gt; MOV = 0 when turn starts. Decrease buff by turn.</t>
-  </si>
-  <si>
-    <t>Chronal Shift</t>
+    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and  &lt;sprite="Common" name="AP"&gt; MaxAP + 1. &lt;sprite="Common" name="MOV"&gt; MOV = 0 when turn starts. Decrease buff by turn.</t>
+  </si>
+  <si>
+    <t>imgBuff_Chant</t>
+  </si>
+  <si>
+    <t>Evade</t>
   </si>
   <si>
     <t>Dodge Next X attack from enemy. Remove buff when turn start.</t>
   </si>
   <si>
+    <t>imgBuff_Evade</t>
+  </si>
+  <si>
     <t>Absorb</t>
   </si>
   <si>
     <t>Next X skill can restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
   </si>
   <si>
+    <t>imgBuff_Absorb</t>
+  </si>
+  <si>
     <t>Hated</t>
   </si>
   <si>
     <t>Attract enemies' attack. Buff decrease by turn.</t>
   </si>
   <si>
+    <t>imgBuff_Hated</t>
+  </si>
+  <si>
     <t>Fear</t>
   </si>
   <si>
     <t>Harm</t>
   </si>
   <si>
-    <t>Get 1 level Fragile when losting &lt;sprite="Common" name="HP"&gt; HP. Buff decrease by turn.</t>
-  </si>
-  <si>
-    <t>buff_Down</t>
+    <t>Get 1 level Fragile when losting &lt;sprite="Common" name="HP"&gt; HP in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_Fear</t>
   </si>
   <si>
     <t>Regen</t>
@@ -179,10 +200,52 @@
     <t>Restore X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Buff decrease by turn.</t>
   </si>
   <si>
+    <t>imgBuff_Regen</t>
+  </si>
+  <si>
     <t>Shield</t>
   </si>
   <si>
-    <t>Reduce X damage when losting &lt;sprite="Common" name="HP"&gt; HP. Remove buff when turn start.</t>
+    <t>Block X damage and buff decrease according to damage. Remove buff when turn start.</t>
+  </si>
+  <si>
+    <t>imgBuff_Shield</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="ATK"&gt; ATK + X.</t>
+  </si>
+  <si>
+    <t>imgBuff_Angry</t>
+  </si>
+  <si>
+    <t>Buy DEF</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="DEF"&gt; DEF + X in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_BuyDEF</t>
+  </si>
+  <si>
+    <t>Buy RES</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="RES"&gt; RES + X in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_BuyRES</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Deal X damage to the source that hit this unit.</t>
+  </si>
+  <si>
+    <t>imgBuff_Spike</t>
   </si>
   <si>
     <t>Burning</t>
@@ -191,7 +254,7 @@
     <t>Lost X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Decrease buff by turn.</t>
   </si>
   <si>
-    <t>buff_Burning</t>
+    <t>imgBuff_Burn</t>
   </si>
   <si>
     <t>Fragile</t>
@@ -201,6 +264,99 @@
   </si>
   <si>
     <t>Lost extra X &lt;sprite="Common" name="HP"&gt; HP when losting &lt;sprite="Common" name="HP"&gt; HP. Buff reduces by half every turn.</t>
+  </si>
+  <si>
+    <t>imgBuff_Fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATK UP </t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="ATK"&gt; ATK + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_ATKUP</t>
+  </si>
+  <si>
+    <t>DEF UP</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="DEF"&gt; DEF + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_DEFUP</t>
+  </si>
+  <si>
+    <t>RES UP</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="RES"&gt; RES + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_RESUP</t>
+  </si>
+  <si>
+    <t>MOV UP</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="MOV"&gt; MaxMOV + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_MOVUP</t>
+  </si>
+  <si>
+    <t>Heal UP</t>
+  </si>
+  <si>
+    <t>Recover extra 2 &lt;sprite="Common" name="HP"&gt; HP when being healed in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_HealUP</t>
+  </si>
+  <si>
+    <t>ATK DOWN</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="ATK"&gt; ATK - X in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_ATKDOWN</t>
+  </si>
+  <si>
+    <t>DEF DOWN</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="DEF"&gt; DEF - X in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_DEFDOWN</t>
+  </si>
+  <si>
+    <t>RES DOWN</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="RES"&gt; RES - X in X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_RESDOWN</t>
+  </si>
+  <si>
+    <t>MOV DOWN</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="MOV"&gt; MOV - X in next X turns.</t>
+  </si>
+  <si>
+    <t>imgBuff_MOVDOWN</t>
+  </si>
+  <si>
+    <t>Heal DOWN</t>
+  </si>
+  <si>
+    <t>The amount of recovering &lt;sprite="Common" name="HP"&gt; HP - X when being healed. Decrease buff by turn.</t>
+  </si>
+  <si>
+    <t>imgBuff_HealDown</t>
   </si>
 </sst>
 </file>
@@ -1137,26 +1293,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
     <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="22.7272727272727" customWidth="1"/>
     <col min="7" max="8" width="13.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="52.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="55.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
     <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="13.6363636363636" customWidth="1"/>
+    <col min="12" max="12" width="18.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1278,7 +1434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:12">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1313,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1321,16 +1477,16 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1342,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:12">
@@ -1353,7 +1509,7 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1374,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>1004</v>
@@ -1383,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:12">
@@ -1391,7 +1547,7 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1412,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1003</v>
@@ -1421,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:12">
@@ -1429,7 +1585,7 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1450,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1461,7 +1617,7 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1470,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1482,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1493,7 +1649,7 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1514,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:12">
@@ -1525,10 +1681,10 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1546,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:12">
@@ -1557,7 +1713,7 @@
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1578,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:12">
@@ -1589,7 +1745,7 @@
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1610,74 +1766,528 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
+        <v>3003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>3004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>3005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>3006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:12">
+      <c r="A19">
         <v>4001</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:12">
-      <c r="A16">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" ht="42" spans="1:12">
+      <c r="A20">
         <v>4002</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>5001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>5002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>5003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>5004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>1004</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>5005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>6001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>6002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>6003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>6004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>6005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20380" windowHeight="11460"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>Evade</t>
   </si>
   <si>
-    <t>Dodge Next X attack from enemy. Remove buff when turn start.</t>
+    <t>Dodge Next X attack from unit. Remove buff when turn start.</t>
   </si>
   <si>
     <t>imgBuff_Evade</t>
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -188,7 +188,7 @@
     <t>Harm</t>
   </si>
   <si>
-    <t>Get 1 level Fragile when losting &lt;sprite="Common" name="HP"&gt; HP in X turns.</t>
+    <t>Get 1 level &lt;sprite="BuffS" name="Fragile"&gt; Fragile when losting &lt;sprite="Common" name="HP"&gt; HP in X turns.</t>
   </si>
   <si>
     <t>imgBuff_Fear</t>
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1676,7 +1676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:12">
+    <row r="12" ht="42" spans="1:12">
       <c r="A12">
         <v>2001</v>
       </c>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -215,7 +215,7 @@
     <t>Angry</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="ATK"&gt; ATK + X.</t>
+    <t>&lt;sprite="Common" name="ATK"&gt; ATK + X and &lt;sprite="Common" name="DEF"&gt; DEF - X.</t>
   </si>
   <si>
     <t>imgBuff_Angry</t>
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1772,7 +1772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="28" spans="1:12">
       <c r="A15">
         <v>3003</v>
       </c>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1725,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -167,7 +167,7 @@
     <t>Absorb</t>
   </si>
   <si>
-    <t>Next X skill can restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
+    <t>Next X skill can restore &lt;sprite="Common" name="HP"&gt; HP equal to half of damage.</t>
   </si>
   <si>
     <t>imgBuff_Absorb</t>
@@ -1295,10 +1295,10 @@
   <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F13" sqref="F13"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,7 +41,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
+  </si>
+  <si>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>effectType</t>
@@ -62,9 +71,6 @@
     <t>canBeDouble</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>firstSpecialEffect</t>
   </si>
   <si>
@@ -92,7 +98,16 @@
     <t>bool</t>
   </si>
   <si>
-    <t>Deadline Fighter</t>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>截止日</t>
+  </si>
+  <si>
+    <t>Won't die before next turn. Remove buff when turn start.</t>
+  </si>
+  <si>
+    <t>在下回合之前 &lt;sprite="Common" name="HP"&gt; HP不会归零。回合开始时移除状态。</t>
   </si>
   <si>
     <t>Help</t>
@@ -104,52 +119,73 @@
     <t>AfterReset</t>
   </si>
   <si>
-    <t>Won't die before next turn. Remove buff when turn start.</t>
-  </si>
-  <si>
     <t>imgBuff_Deadline</t>
   </si>
   <si>
     <t>Overtime Work</t>
   </si>
   <si>
+    <t>加班</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="AP"&gt; MaxAP + 1 in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，&lt;sprite="Common" name="AP"&gt; 最大行动力+1。</t>
+  </si>
+  <si>
     <t>TurnDecrease</t>
   </si>
   <si>
     <t>BeforeReset</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; MaxAP + 1 in X turns.</t>
-  </si>
-  <si>
     <t>imgBuff_Overtime</t>
   </si>
   <si>
     <t>Infinity</t>
   </si>
   <si>
+    <t>无限</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for next X &lt;sprite="SkillType" name="SSkill"&gt; Support Skill or &lt;sprite="SkillType" name="HSkill"&gt; Hurt Skill.</t>
+  </si>
+  <si>
+    <t>之后X个 &lt;sprite="SkillType" name="SSkill"&gt; 支援技能或 &lt;sprite="SkillType" name="HSkill"&gt; 伤害技能的 &lt;sprite="Common" name="Radius"&gt; 范围 + 1。</t>
+  </si>
+  <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for next X &lt;sprite="SkillType" name="SSkill"&gt; Support Skill or &lt;sprite="SkillType" name="HSkill"&gt; Hurt Skill.</t>
-  </si>
-  <si>
     <t>imgBuff_Infinity</t>
   </si>
   <si>
     <t>Super Worker</t>
   </si>
   <si>
+    <t>超级打工人</t>
+  </si>
+  <si>
     <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES and &lt;sprite="Common" name="MOV"&gt; MaxMOV by 1 in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，提升 &lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防 and &lt;sprite="Common" name="MOV"&gt; 最大移动力1点。</t>
+  </si>
+  <si>
     <t>imgBuff_Super</t>
   </si>
   <si>
     <t>Chanting</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and  &lt;sprite="Common" name="AP"&gt; MaxAP + 1. &lt;sprite="Common" name="MOV"&gt; MOV = 0 when turn starts. Decrease buff by turn.</t>
+    <t>吟唱</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and  &lt;sprite="Common" name="AP"&gt; MaxAP + 1 in X turns.&lt;sprite="Common" name="MOV"&gt; MOV = 0 when turn starts.</t>
+  </si>
+  <si>
+    <t>在X回合内，&lt;sprite="Common" name="Range"&gt; 射程+2 and  &lt;sprite="Common" name="AP"&gt; 最大行动力+1。回合开始时 &lt;sprite="Common" name="MOV"&gt; 移动力为0。</t>
   </si>
   <si>
     <t>imgBuff_Chant</t>
@@ -158,25 +194,43 @@
     <t>Evade</t>
   </si>
   <si>
+    <t>回避</t>
+  </si>
+  <si>
     <t>Dodge Next X attack from unit. Remove buff when turn start.</t>
   </si>
   <si>
+    <t>必定回避之后X次来自单位的攻击。回合开始时移除状态。</t>
+  </si>
+  <si>
     <t>imgBuff_Evade</t>
   </si>
   <si>
     <t>Absorb</t>
   </si>
   <si>
+    <t>吸收</t>
+  </si>
+  <si>
     <t>Next X skill can restore &lt;sprite="Common" name="HP"&gt; HP equal to half of damage.</t>
   </si>
   <si>
+    <t>之后X个可以造成伤害的技能会恢复相当于一半伤害的 &lt;sprite="Common" name="HP"&gt; 生命。</t>
+  </si>
+  <si>
     <t>imgBuff_Absorb</t>
   </si>
   <si>
     <t>Hated</t>
   </si>
   <si>
-    <t>Attract enemies' attack. Buff decrease by turn.</t>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>Attract enemies' attack in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，吸引敌人的攻击。</t>
   </si>
   <si>
     <t>imgBuff_Hated</t>
@@ -185,19 +239,31 @@
     <t>Fear</t>
   </si>
   <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>Get 1 level &lt;sprite="BuffS" name="Fragile"&gt; Fragile when losting &lt;sprite="Common" name="HP"&gt; HP in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，失去 &lt;sprite="Common" name="HP"&gt; 生命时获得1层 &lt;sprite="BuffS" name="Fragile"&gt; 脆弱。</t>
+  </si>
+  <si>
     <t>Harm</t>
   </si>
   <si>
-    <t>Get 1 level &lt;sprite="BuffS" name="Fragile"&gt; Fragile when losting &lt;sprite="Common" name="HP"&gt; HP in X turns.</t>
-  </si>
-  <si>
     <t>imgBuff_Fear</t>
   </si>
   <si>
     <t>Regen</t>
   </si>
   <si>
-    <t>Restore X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Buff decrease by turn.</t>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>Restore X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Decrease buff by turn.</t>
+  </si>
+  <si>
+    <t>回合开始时恢复X点 &lt;sprite="Common" name="HP"&gt; 生命。回合开始时减少1层。</t>
   </si>
   <si>
     <t>imgBuff_Regen</t>
@@ -206,154 +272,256 @@
     <t>Shield</t>
   </si>
   <si>
+    <t>护盾</t>
+  </si>
+  <si>
     <t>Block X damage and buff decrease according to damage. Remove buff when turn start.</t>
   </si>
   <si>
+    <t>格挡X点伤害并消耗格挡伤害的层数。回合开始时移除状态。</t>
+  </si>
+  <si>
     <t>imgBuff_Shield</t>
   </si>
   <si>
     <t>Angry</t>
   </si>
   <si>
+    <t>愤怒</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="ATK"&gt; ATK + X and &lt;sprite="Common" name="DEF"&gt; DEF - X.</t>
   </si>
   <si>
+    <t>&lt;sprite="Common" name="ATK"&gt; 攻击 + X and &lt;sprite="Common" name="DEF"&gt; 防御 - X。</t>
+  </si>
+  <si>
     <t>imgBuff_Angry</t>
   </si>
   <si>
     <t>Buy DEF</t>
   </si>
   <si>
+    <t>买入防御</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="DEF"&gt; DEF + X in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="DEF"&gt; 防御+X。</t>
+  </si>
+  <si>
     <t>imgBuff_BuyDEF</t>
   </si>
   <si>
     <t>Buy RES</t>
   </si>
   <si>
+    <t>买入魔防</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="RES"&gt; RES + X in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="RES"&gt; 魔防+X。</t>
+  </si>
+  <si>
     <t>imgBuff_BuyRES</t>
   </si>
   <si>
     <t>Spike</t>
   </si>
   <si>
+    <t>荆棘</t>
+  </si>
+  <si>
     <t>Deal X damage to the source that hit this unit.</t>
   </si>
   <si>
+    <t>受到伤害时，对伤害来源造成X点伤害。</t>
+  </si>
+  <si>
     <t>imgBuff_Spike</t>
   </si>
   <si>
     <t>Burning</t>
   </si>
   <si>
+    <t>灼烧</t>
+  </si>
+  <si>
     <t>Lost X &lt;sprite="Common" name="HP"&gt; HP when turn starts. Decrease buff by turn.</t>
   </si>
   <si>
+    <t>回合开始时失去X点 &lt;sprite="Common" name="HP"&gt; 生命。回合开始时减少1层。</t>
+  </si>
+  <si>
     <t>imgBuff_Burn</t>
   </si>
   <si>
     <t>Fragile</t>
   </si>
   <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>Lost extra X &lt;sprite="Common" name="HP"&gt; HP when losting &lt;sprite="Common" name="HP"&gt; HP. Buff reduces by half every turn.</t>
+  </si>
+  <si>
+    <t>失去 &lt;sprite="Common" name="HP"&gt; 生命时额外失去X点 &lt;sprite="Common" name="HP"&gt; 生命。回合开始时层数减半。</t>
+  </si>
+  <si>
     <t>TurnHalf</t>
   </si>
   <si>
-    <t>Lost extra X &lt;sprite="Common" name="HP"&gt; HP when losting &lt;sprite="Common" name="HP"&gt; HP. Buff reduces by half every turn.</t>
-  </si>
-  <si>
     <t>imgBuff_Fragile</t>
   </si>
   <si>
     <t xml:space="preserve">ATK UP </t>
   </si>
   <si>
+    <t>攻击提升</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="ATK"&gt; ATK + 1 in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="ATK"&gt; 攻击+1。</t>
+  </si>
+  <si>
     <t>imgBuff_ATKUP</t>
   </si>
   <si>
     <t>DEF UP</t>
   </si>
   <si>
+    <t>防御提升</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="DEF"&gt; DEF + 1 in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="DEF"&gt; 防御+1。</t>
+  </si>
+  <si>
     <t>imgBuff_DEFUP</t>
   </si>
   <si>
     <t>RES UP</t>
   </si>
   <si>
+    <t>魔防提升</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="RES"&gt; RES + 1 in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="RES"&gt; 魔防+1。</t>
+  </si>
+  <si>
     <t>imgBuff_RESUP</t>
   </si>
   <si>
     <t>MOV UP</t>
   </si>
   <si>
+    <t>移动提升</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="MOV"&gt; MaxMOV + 1 in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="MOV"&gt; 最大移动力+1。</t>
+  </si>
+  <si>
     <t>imgBuff_MOVUP</t>
   </si>
   <si>
     <t>Heal UP</t>
   </si>
   <si>
+    <t>治疗提升</t>
+  </si>
+  <si>
     <t>Recover extra 2 &lt;sprite="Common" name="HP"&gt; HP when being healed in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，受到治疗时额外恢复2点&lt;sprite="Common" name="HP"&gt; 生命。</t>
+  </si>
+  <si>
     <t>imgBuff_HealUP</t>
   </si>
   <si>
     <t>ATK DOWN</t>
   </si>
   <si>
+    <t>攻击下降</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="ATK"&gt; ATK - X in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="ATK"&gt; 攻击-X。</t>
+  </si>
+  <si>
     <t>imgBuff_ATKDOWN</t>
   </si>
   <si>
     <t>DEF DOWN</t>
   </si>
   <si>
+    <t>防御下降</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="DEF"&gt; DEF - X in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="DEF"&gt; 防御-X。</t>
+  </si>
+  <si>
     <t>imgBuff_DEFDOWN</t>
   </si>
   <si>
     <t>RES DOWN</t>
   </si>
   <si>
+    <t>魔防下降</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="RES"&gt; RES - X in X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="RES"&gt; 魔防-X。</t>
+  </si>
+  <si>
     <t>imgBuff_RESDOWN</t>
   </si>
   <si>
     <t>MOV DOWN</t>
   </si>
   <si>
+    <t>移动下降</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="MOV"&gt; MOV - X in next X turns.</t>
   </si>
   <si>
+    <t>在X回合内，&lt;sprite="Common" name="MOV"&gt; 移动力-X。</t>
+  </si>
+  <si>
     <t>imgBuff_MOVDOWN</t>
   </si>
   <si>
     <t>Heal DOWN</t>
   </si>
   <si>
-    <t>The amount of recovering &lt;sprite="Common" name="HP"&gt; HP - X when being healed. Decrease buff by turn.</t>
+    <t>治疗下降</t>
+  </si>
+  <si>
+    <t>The amount of recovering &lt;sprite="Common" name="HP"&gt; HP - X when being healed in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，受到治疗时恢复的&lt;sprite="Common" name="HP"&gt; 生命减少X点。</t>
   </si>
   <si>
     <t>imgBuff_HealDown</t>
@@ -1293,40 +1461,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="9.18181818181818" customWidth="1"/>
-    <col min="5" max="5" width="20.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="22.7272727272727" customWidth="1"/>
-    <col min="7" max="8" width="13.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="55.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
-    <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="18.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="76.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="70.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="9.18181818181818" customWidth="1"/>
+    <col min="8" max="8" width="20.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="22.7272727272727" customWidth="1"/>
+    <col min="10" max="11" width="13.6363636363636" customWidth="1"/>
+    <col min="12" max="12" width="19.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="17.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="18.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1508,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1351,31 +1523,37 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1384,910 +1562,1078 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>1003</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" ht="56" spans="1:12">
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="42" spans="1:14">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7">
+      <c r="L7">
         <v>1004</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="56" spans="1:12">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:14">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
         <v>1003</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:12">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+      <c r="H10" t="s">
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="42" spans="1:12">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:14">
       <c r="A12">
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:12">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:14">
       <c r="A13">
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:12">
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:14">
       <c r="A14">
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:12">
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:14">
       <c r="A15">
         <v>3003</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>3004</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>3005</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+      <c r="H17" t="s">
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>3006</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+      <c r="H18" t="s">
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:14">
       <c r="A19">
         <v>4001</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="42" spans="1:12">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:14">
       <c r="A20">
         <v>4002</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>5001</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+      <c r="H21" t="s">
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>5002</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>5003</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
+      <c r="H23" t="s">
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>5004</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24">
+        <v>36</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>1004</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>5005</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>6001</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
+      <c r="H26" t="s">
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>6002</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
+      <c r="H27" t="s">
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>6003</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>6004</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
+      <c r="H29" t="s">
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>6005</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
+      <c r="H30" t="s">
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t>//Remark</t>
   </si>
@@ -236,6 +236,24 @@
     <t>imgBuff_Hated</t>
   </si>
   <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>魅惑</t>
+  </si>
+  <si>
+    <t>Skill target of foe reverse in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，敌人技能目标取相反类型。</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>imgBuff_Down</t>
+  </si>
+  <si>
     <t>Fear</t>
   </si>
   <si>
@@ -246,9 +264,6 @@
   </si>
   <si>
     <t>在X回合内，失去 &lt;sprite="Common" name="HP"&gt; 生命时获得1层 &lt;sprite="BuffS" name="Fragile"&gt; 脆弱。</t>
-  </si>
-  <si>
-    <t>Harm</t>
   </si>
   <si>
     <t>imgBuff_Fear</t>
@@ -1461,14 +1476,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1908,9 +1923,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:14">
+    <row r="12" spans="1:14">
       <c r="A12">
-        <v>2001</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -1948,7 +1963,7 @@
     </row>
     <row r="13" ht="28" spans="1:14">
       <c r="A13">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1963,7 +1978,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1972,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1986,7 +2001,7 @@
     </row>
     <row r="14" ht="28" spans="1:14">
       <c r="A14">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -2007,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -2024,7 +2039,7 @@
     </row>
     <row r="15" ht="28" spans="1:14">
       <c r="A15">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -2045,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -2060,9 +2075,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" ht="28" spans="1:14">
       <c r="A16">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
@@ -2070,7 +2085,7 @@
       <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E16" t="s">
@@ -2083,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -2100,7 +2115,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
@@ -2138,7 +2153,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -2159,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -2174,9 +2189,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:14">
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B19" t="s">
         <v>105</v>
@@ -2184,23 +2199,23 @@
       <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -2214,7 +2229,7 @@
     </row>
     <row r="20" ht="28" spans="1:14">
       <c r="A20">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
@@ -2225,7 +2240,7 @@
       <c r="D20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>113</v>
       </c>
       <c r="F20" t="s">
@@ -2235,45 +2250,45 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>114</v>
       </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
+    </row>
+    <row r="21" ht="28" spans="1:14">
+      <c r="A21">
+        <v>4002</v>
+      </c>
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
-        <v>5001</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
@@ -2328,7 +2343,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
@@ -2366,7 +2381,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -2398,19 +2413,13 @@
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>1004</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B25" t="s">
         <v>136</v>
@@ -2442,13 +2451,19 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
+      <c r="L25">
+        <v>1004</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
       <c r="N25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>6001</v>
+        <v>5005</v>
       </c>
       <c r="B26" t="s">
         <v>141</v>
@@ -2463,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2486,7 +2501,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B27" t="s">
         <v>146</v>
@@ -2524,7 +2539,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B28" t="s">
         <v>151</v>
@@ -2562,7 +2577,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B29" t="s">
         <v>156</v>
@@ -2586,7 +2601,7 @@
         <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -2600,7 +2615,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -2624,7 +2639,7 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -2634,6 +2649,44 @@
       </c>
       <c r="N30" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>6005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="176">
   <si>
     <t>//Remark</t>
   </si>
@@ -252,6 +252,21 @@
   </si>
   <si>
     <t>imgBuff_Down</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>东山再起</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="AP"&gt; MaxAP + X</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="AP"&gt; 最大行动力+X</t>
+  </si>
+  <si>
+    <t>imgBuff_Up</t>
   </si>
   <si>
     <t>Fear</t>
@@ -1476,14 +1491,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1961,9 +1976,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:14">
+    <row r="13" spans="1:14">
       <c r="A13">
-        <v>2001</v>
+        <v>1010</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1978,13 +1993,13 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
@@ -1993,6 +2008,12 @@
         <v>1</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1003</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
@@ -2001,7 +2022,7 @@
     </row>
     <row r="14" ht="28" spans="1:14">
       <c r="A14">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -2016,7 +2037,7 @@
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -2025,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -2039,7 +2060,7 @@
     </row>
     <row r="15" ht="28" spans="1:14">
       <c r="A15">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -2060,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -2077,7 +2098,7 @@
     </row>
     <row r="16" ht="28" spans="1:14">
       <c r="A16">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
@@ -2098,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -2113,9 +2134,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" ht="28" spans="1:14">
       <c r="A17">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
@@ -2123,7 +2144,7 @@
       <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
@@ -2136,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -2153,7 +2174,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -2191,7 +2212,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B19" t="s">
         <v>105</v>
@@ -2212,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
         <v>36</v>
@@ -2227,9 +2248,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:14">
+    <row r="20" spans="1:14">
       <c r="A20">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
@@ -2237,23 +2258,23 @@
       <c r="C20" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -2267,7 +2288,7 @@
     </row>
     <row r="21" ht="28" spans="1:14">
       <c r="A21">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B21" t="s">
         <v>115</v>
@@ -2278,7 +2299,7 @@
       <c r="D21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
       <c r="F21" t="s">
@@ -2288,45 +2309,45 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>119</v>
       </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="22" ht="28" spans="1:14">
+      <c r="A22">
+        <v>4002</v>
+      </c>
+      <c r="B22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22">
-        <v>5001</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E22" t="s">
-        <v>124</v>
-      </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
         <v>36</v>
@@ -2343,7 +2364,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
@@ -2381,7 +2402,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -2419,7 +2440,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B25" t="s">
         <v>136</v>
@@ -2451,19 +2472,13 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>1004</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B26" t="s">
         <v>141</v>
@@ -2495,13 +2510,19 @@
       <c r="K26" t="b">
         <v>1</v>
       </c>
+      <c r="L26">
+        <v>1004</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
       <c r="N26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>6001</v>
+        <v>5005</v>
       </c>
       <c r="B27" t="s">
         <v>146</v>
@@ -2516,7 +2537,7 @@
         <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -2539,7 +2560,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B28" t="s">
         <v>151</v>
@@ -2577,7 +2598,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B29" t="s">
         <v>156</v>
@@ -2615,7 +2636,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -2639,7 +2660,7 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -2653,7 +2674,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B31" t="s">
         <v>166</v>
@@ -2677,7 +2698,7 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -2687,6 +2708,44 @@
       </c>
       <c r="N31" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>6005</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -242,10 +242,10 @@
     <t>魅惑</t>
   </si>
   <si>
-    <t>Skill target of foe reverse in X turns.</t>
-  </si>
-  <si>
-    <t>在X回合内，敌人技能目标取相反类型。</t>
+    <t>Skill target of foe reverse and &lt;sprite="Common" name="ATK"&gt; ATK + 2 in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，敌人技能目标取相反类型且&lt;sprite="Common" name="ATK"&gt; 攻击+2。</t>
   </si>
   <si>
     <t>Harm</t>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13:M13"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1938,7 +1938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" ht="28" spans="1:14">
       <c r="A12">
         <v>1009</v>
       </c>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -458,10 +458,10 @@
     <t>移动提升</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="MOV"&gt; MaxMOV + 1 in X turns.</t>
-  </si>
-  <si>
-    <t>在X回合内，&lt;sprite="Common" name="MOV"&gt; 最大移动力+1。</t>
+    <t>&lt;sprite="Common" name="MOV"&gt; MaxMOV + 2 in X turns.</t>
+  </si>
+  <si>
+    <t>在X回合内，&lt;sprite="Common" name="MOV"&gt; 最大移动力+2。</t>
   </si>
   <si>
     <t>imgBuff_MOVUP</t>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2514,7 +2514,7 @@
         <v>1004</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
         <v>145</v>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -251,7 +251,7 @@
     <t>Harm</t>
   </si>
   <si>
-    <t>imgBuff_Down</t>
+    <t>imgBuff_Charm</t>
   </si>
   <si>
     <t>Sunrise</t>
@@ -266,7 +266,7 @@
     <t>&lt;sprite="Common" name="AP"&gt; 最大行动力+X</t>
   </si>
   <si>
-    <t>imgBuff_Up</t>
+    <t>imgBuff_Sunrise</t>
   </si>
   <si>
     <t>Fear</t>
@@ -1498,7 +1498,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -305,7 +305,7 @@
     <t>护盾</t>
   </si>
   <si>
-    <t>Block X damage and buff decrease according to damage. Remove buff when turn start.</t>
+    <t>Block X damage and buff decrease equal to damage. Remove buff when turn start.</t>
   </si>
   <si>
     <t>格挡X点伤害并消耗格挡伤害的层数。回合开始时移除状态。</t>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -170,7 +170,7 @@
     <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES and &lt;sprite="Common" name="MOV"&gt; MaxMOV by 1 in X turns.</t>
   </si>
   <si>
-    <t>在X回合内，提升 &lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防 and &lt;sprite="Common" name="MOV"&gt; 最大移动力1点。</t>
+    <t>在X回合内，提升 &lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防以及 &lt;sprite="Common" name="MOV"&gt; 最大移动力1点。</t>
   </si>
   <si>
     <t>imgBuff_Super</t>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -224,7 +224,7 @@
     <t>Hated</t>
   </si>
   <si>
-    <t>嘲讽</t>
+    <t>众矢之的</t>
   </si>
   <si>
     <t>Attract enemies' attack in X turns.</t>
@@ -1498,7 +1498,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -242,15 +242,18 @@
     <t>魅惑</t>
   </si>
   <si>
-    <t>Skill target of foe reverse and &lt;sprite="Common" name="ATK"&gt; ATK + 2 in X turns.</t>
-  </si>
-  <si>
-    <t>在X回合内，敌人技能目标取相反类型且&lt;sprite="Common" name="ATK"&gt; 攻击+2。</t>
+    <t>Skill target of foe reverse and &lt;sprite="Common" name="ATK"&gt; ATK + X. Buff reduces by half every turn.</t>
+  </si>
+  <si>
+    <t>敌人技能目标取相反类型且&lt;sprite="Common" name="ATK"&gt; 攻击+X。回合开始时层数减半。</t>
   </si>
   <si>
     <t>Harm</t>
   </si>
   <si>
+    <t>TurnHalf</t>
+  </si>
+  <si>
     <t>imgBuff_Charm</t>
   </si>
   <si>
@@ -399,9 +402,6 @@
   </si>
   <si>
     <t>失去 &lt;sprite="Common" name="HP"&gt; 生命时额外失去X点 &lt;sprite="Common" name="HP"&gt; 生命。回合开始时层数减半。</t>
-  </si>
-  <si>
-    <t>TurnHalf</t>
   </si>
   <si>
     <t>imgBuff_Fragile</t>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1981,16 +1981,16 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:14">
@@ -2025,16 +2025,16 @@
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:14">
@@ -2063,16 +2063,16 @@
         <v>3001</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:14">
@@ -2101,16 +2101,16 @@
         <v>3002</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:14">
@@ -2139,16 +2139,16 @@
         <v>3003</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2177,16 +2177,16 @@
         <v>3004</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2215,16 +2215,16 @@
         <v>3005</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2253,16 +2253,16 @@
         <v>3006</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:14">
@@ -2291,16 +2291,16 @@
         <v>4001</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
         <v>73</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:14">
@@ -2329,16 +2329,16 @@
         <v>4002</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
@@ -2347,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
         <v>36</v>
